--- a/Results/RFE/Speech/noMFCCs/speech_noMFCCs_vowels_rfe.xlsx
+++ b/Results/RFE/Speech/noMFCCs/speech_noMFCCs_vowels_rfe.xlsx
@@ -506,7 +506,7 @@
       </c>
       <c r="O1" s="1" t="inlineStr">
         <is>
-          <t>Validation</t>
+          <t>F1 train</t>
         </is>
       </c>
     </row>
@@ -562,7 +562,7 @@
         <v>0.6</v>
       </c>
       <c r="O2" t="n">
-        <v>0.8298496240601503</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="3">
@@ -617,7 +617,7 @@
         <v>0.6</v>
       </c>
       <c r="O3" t="n">
-        <v>0.7523038365143628</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4">
@@ -672,7 +672,7 @@
         <v>0.6</v>
       </c>
       <c r="O4" t="n">
-        <v>0.8372222222222222</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5">
@@ -727,7 +727,7 @@
         <v>0.6</v>
       </c>
       <c r="O5" t="n">
-        <v>0.7989122315592904</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6">
@@ -743,7 +743,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>{'activation': 'tanh', 'alpha': 0.0001, 'hidden_layer_sizes': (32, 16), 'learning_rate': 'constant'}</t>
+          <t>{'activation': 'tanh', 'alpha': 0.0001, 'hidden_layer_sizes': (64, 32), 'learning_rate': 'constant'}</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -752,7 +752,7 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F6" t="n">
         <v>2</v>
@@ -761,28 +761,28 @@
         <v>8</v>
       </c>
       <c r="H6" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I6" t="n">
-        <v>0.8</v>
+        <v>0.85</v>
       </c>
       <c r="J6" t="n">
-        <v>0.8</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="K6" t="n">
-        <v>0.8</v>
+        <v>0.9</v>
       </c>
       <c r="L6" t="n">
-        <v>0.8</v>
+        <v>0.8181818181818182</v>
       </c>
       <c r="M6" t="n">
         <v>0.8</v>
       </c>
       <c r="N6" t="n">
-        <v>0.8</v>
+        <v>0.9</v>
       </c>
       <c r="O6" t="n">
-        <v>0.5543417366946779</v>
+        <v>0.7058823529411765</v>
       </c>
     </row>
     <row r="7">
@@ -837,7 +837,7 @@
         <v>0.5</v>
       </c>
       <c r="O7" t="n">
-        <v>0.9213305322128852</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8">
@@ -892,7 +892,7 @@
         <v>0.5</v>
       </c>
       <c r="O8" t="n">
-        <v>0.763968253968254</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9">
@@ -947,7 +947,7 @@
         <v>0.4</v>
       </c>
       <c r="O9" t="n">
-        <v>0.8342063492063492</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10">
@@ -1002,7 +1002,7 @@
         <v>0.3</v>
       </c>
       <c r="O10" t="n">
-        <v>0.7873015873015873</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11">
@@ -1018,7 +1018,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>{'activation': 'tanh', 'alpha': 0.0001, 'hidden_layer_sizes': (8,), 'learning_rate': 'constant'}</t>
+          <t>{'activation': 'relu', 'alpha': 0.0001, 'hidden_layer_sizes': (64, 32), 'learning_rate': 'constant'}</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -1027,7 +1027,7 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="F11" t="n">
         <v>6</v>
@@ -1036,28 +1036,28 @@
         <v>4</v>
       </c>
       <c r="H11" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I11" t="n">
-        <v>0.5</v>
+        <v>0.65</v>
       </c>
       <c r="J11" t="n">
-        <v>0.5454545454545454</v>
+        <v>0.72</v>
       </c>
       <c r="K11" t="n">
-        <v>0.6</v>
+        <v>0.9</v>
       </c>
       <c r="L11" t="n">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="M11" t="n">
         <v>0.4</v>
       </c>
       <c r="N11" t="n">
-        <v>0.6</v>
+        <v>0.9</v>
       </c>
       <c r="O11" t="n">
-        <v>0.6857142857142857</v>
+        <v>0.7555555555555555</v>
       </c>
     </row>
     <row r="12">
@@ -1112,7 +1112,7 @@
         <v>0.6</v>
       </c>
       <c r="O12" t="n">
-        <v>0.9365686274509804</v>
+        <v>0.96</v>
       </c>
     </row>
     <row r="13">
@@ -1167,7 +1167,7 @@
         <v>0.6</v>
       </c>
       <c r="O13" t="n">
-        <v>0.8206349206349206</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14">
@@ -1222,7 +1222,7 @@
         <v>0.6</v>
       </c>
       <c r="O14" t="n">
-        <v>0.8569281045751633</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15">
@@ -1277,7 +1277,7 @@
         <v>0.5</v>
       </c>
       <c r="O15" t="n">
-        <v>0.8327407886231416</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16">
@@ -1332,7 +1332,7 @@
         <v>0.8</v>
       </c>
       <c r="O16" t="n">
-        <v>0.7021094402673349</v>
+        <v>0.574468085106383</v>
       </c>
     </row>
   </sheetData>
